--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H2">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I2">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J2">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.831493666666667</v>
+        <v>2.740639666666667</v>
       </c>
       <c r="N2">
-        <v>5.494481</v>
+        <v>8.221919</v>
       </c>
       <c r="O2">
-        <v>0.04079247358478674</v>
+        <v>0.05814502584416985</v>
       </c>
       <c r="P2">
-        <v>0.04079247358478674</v>
+        <v>0.05814502584416984</v>
       </c>
       <c r="Q2">
-        <v>2.874390726812556</v>
+        <v>10.03062698668056</v>
       </c>
       <c r="R2">
-        <v>25.869516541313</v>
+        <v>90.27564288012499</v>
       </c>
       <c r="S2">
-        <v>0.01199836587509083</v>
+        <v>0.02779990463060325</v>
       </c>
       <c r="T2">
-        <v>0.01199836587509083</v>
+        <v>0.02779990463060324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H3">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I3">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J3">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>110.904015</v>
       </c>
       <c r="O3">
-        <v>0.8233806072555885</v>
+        <v>0.7843079965148284</v>
       </c>
       <c r="P3">
-        <v>0.8233806072555884</v>
+        <v>0.7843079965148283</v>
       </c>
       <c r="Q3">
-        <v>58.01848660178834</v>
+        <v>135.3013579664584</v>
       </c>
       <c r="R3">
-        <v>522.1663794160951</v>
+        <v>1217.712221698125</v>
       </c>
       <c r="S3">
-        <v>0.2421824643649804</v>
+        <v>0.3749880095086065</v>
       </c>
       <c r="T3">
-        <v>0.2421824643649804</v>
+        <v>0.3749880095086063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H4">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I4">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J4">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.098334333333334</v>
+        <v>7.396246333333333</v>
       </c>
       <c r="N4">
-        <v>18.295003</v>
+        <v>22.188739</v>
       </c>
       <c r="O4">
-        <v>0.1358269191596248</v>
+        <v>0.1569177223230415</v>
       </c>
       <c r="P4">
-        <v>0.1358269191596247</v>
+        <v>0.1569177223230415</v>
       </c>
       <c r="Q4">
-        <v>9.570874295535445</v>
+        <v>27.06995340306944</v>
       </c>
       <c r="R4">
-        <v>86.13786865981901</v>
+        <v>243.629580627625</v>
       </c>
       <c r="S4">
-        <v>0.03995102352340184</v>
+        <v>0.07502443505869455</v>
       </c>
       <c r="T4">
-        <v>0.03995102352340183</v>
+        <v>0.07502443505869452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.444496</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H5">
-        <v>7.333488</v>
+        <v>10.979875</v>
       </c>
       <c r="I5">
-        <v>0.4581324022613356</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J5">
-        <v>0.4581324022613355</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.831493666666667</v>
+        <v>0.02965966666666667</v>
       </c>
       <c r="N5">
-        <v>5.494481</v>
+        <v>0.088979</v>
       </c>
       <c r="O5">
-        <v>0.04079247358478674</v>
+        <v>0.0006292553179602461</v>
       </c>
       <c r="P5">
-        <v>0.04079247358478674</v>
+        <v>0.0006292553179602461</v>
       </c>
       <c r="Q5">
-        <v>4.477078942192001</v>
+        <v>0.1085531441805556</v>
       </c>
       <c r="R5">
-        <v>40.29371047972801</v>
+        <v>0.976978297625</v>
       </c>
       <c r="S5">
-        <v>0.01868835391758043</v>
+        <v>0.0003008552765025351</v>
       </c>
       <c r="T5">
-        <v>0.01868835391758042</v>
+        <v>0.0003008552765025349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>7.333488</v>
       </c>
       <c r="I6">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J6">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.96800500000001</v>
+        <v>2.740639666666667</v>
       </c>
       <c r="N6">
-        <v>110.904015</v>
+        <v>8.221919</v>
       </c>
       <c r="O6">
-        <v>0.8233806072555885</v>
+        <v>0.05814502584416985</v>
       </c>
       <c r="P6">
-        <v>0.8233806072555884</v>
+        <v>0.05814502584416984</v>
       </c>
       <c r="Q6">
-        <v>90.36814035048002</v>
+        <v>6.699482702608</v>
       </c>
       <c r="R6">
-        <v>813.3132631543201</v>
+        <v>60.295344323472</v>
       </c>
       <c r="S6">
-        <v>0.3772173355774</v>
+        <v>0.01856763096207137</v>
       </c>
       <c r="T6">
-        <v>0.3772173355773999</v>
+        <v>0.01856763096207136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>7.333488</v>
       </c>
       <c r="I7">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J7">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.098334333333334</v>
+        <v>36.96800500000001</v>
       </c>
       <c r="N7">
-        <v>18.295003</v>
+        <v>110.904015</v>
       </c>
       <c r="O7">
-        <v>0.1358269191596248</v>
+        <v>0.7843079965148284</v>
       </c>
       <c r="P7">
-        <v>0.1358269191596247</v>
+        <v>0.7843079965148283</v>
       </c>
       <c r="Q7">
-        <v>14.907353884496</v>
+        <v>90.36814035048002</v>
       </c>
       <c r="R7">
-        <v>134.166184960464</v>
+        <v>813.3132631543201</v>
       </c>
       <c r="S7">
-        <v>0.06222671276635512</v>
+        <v>0.2504554986168104</v>
       </c>
       <c r="T7">
-        <v>0.0622267127663551</v>
+        <v>0.2504554986168104</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.156530666666667</v>
+        <v>2.444496</v>
       </c>
       <c r="H8">
-        <v>3.469592</v>
+        <v>7.333488</v>
       </c>
       <c r="I8">
-        <v>0.2167498627974453</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J8">
-        <v>0.2167498627974453</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.831493666666667</v>
+        <v>7.396246333333333</v>
       </c>
       <c r="N8">
-        <v>5.494481</v>
+        <v>22.188739</v>
       </c>
       <c r="O8">
-        <v>0.04079247358478674</v>
+        <v>0.1569177223230415</v>
       </c>
       <c r="P8">
-        <v>0.04079247358478674</v>
+        <v>0.1569177223230415</v>
       </c>
       <c r="Q8">
-        <v>2.118178591305778</v>
+        <v>18.080094576848</v>
       </c>
       <c r="R8">
-        <v>19.063607321752</v>
+        <v>162.720851191632</v>
       </c>
       <c r="S8">
-        <v>0.008841763052670938</v>
+        <v>0.05010902166096753</v>
       </c>
       <c r="T8">
-        <v>0.008841763052670938</v>
+        <v>0.05010902166096751</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.156530666666667</v>
+        <v>2.444496</v>
       </c>
       <c r="H9">
-        <v>3.469592</v>
+        <v>7.333488</v>
       </c>
       <c r="I9">
-        <v>0.2167498627974453</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J9">
-        <v>0.2167498627974453</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>36.96800500000001</v>
+        <v>0.02965966666666667</v>
       </c>
       <c r="N9">
-        <v>110.904015</v>
+        <v>0.088979</v>
       </c>
       <c r="O9">
-        <v>0.8233806072555885</v>
+        <v>0.0006292553179602461</v>
       </c>
       <c r="P9">
-        <v>0.8233806072555884</v>
+        <v>0.0006292553179602461</v>
       </c>
       <c r="Q9">
-        <v>42.75463146798667</v>
+        <v>0.07250293652800001</v>
       </c>
       <c r="R9">
-        <v>384.7916832118801</v>
+        <v>0.6525264287520001</v>
       </c>
       <c r="S9">
-        <v>0.178467633652726</v>
+        <v>0.0002009420471515407</v>
       </c>
       <c r="T9">
-        <v>0.178467633652726</v>
+        <v>0.0002009420471515406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H10">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I10">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J10">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.098334333333334</v>
+        <v>2.740639666666667</v>
       </c>
       <c r="N10">
-        <v>18.295003</v>
+        <v>8.221919</v>
       </c>
       <c r="O10">
-        <v>0.1358269191596248</v>
+        <v>0.05814502584416985</v>
       </c>
       <c r="P10">
-        <v>0.1358269191596247</v>
+        <v>0.05814502584416984</v>
       </c>
       <c r="Q10">
-        <v>7.052910672086222</v>
+        <v>3.804263650368888</v>
       </c>
       <c r="R10">
-        <v>63.476196048776</v>
+        <v>34.23837285331999</v>
       </c>
       <c r="S10">
-        <v>0.02944046609204836</v>
+        <v>0.01054352502693596</v>
       </c>
       <c r="T10">
-        <v>0.02944046609204836</v>
+        <v>0.01054352502693596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.165334</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H11">
-        <v>0.4960020000000001</v>
+        <v>4.16428</v>
       </c>
       <c r="I11">
-        <v>0.03098588117774611</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J11">
-        <v>0.03098588117774611</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.831493666666667</v>
+        <v>36.96800500000001</v>
       </c>
       <c r="N11">
-        <v>5.494481</v>
+        <v>110.904015</v>
       </c>
       <c r="O11">
-        <v>0.04079247358478674</v>
+        <v>0.7843079965148284</v>
       </c>
       <c r="P11">
-        <v>0.04079247358478674</v>
+        <v>0.7843079965148283</v>
       </c>
       <c r="Q11">
-        <v>0.3028081738846667</v>
+        <v>51.31504128713333</v>
       </c>
       <c r="R11">
-        <v>2.725273564962</v>
+        <v>461.8353715842001</v>
       </c>
       <c r="S11">
-        <v>0.001263990739444549</v>
+        <v>0.142219749153474</v>
       </c>
       <c r="T11">
-        <v>0.001263990739444549</v>
+        <v>0.1422197491534739</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.165334</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H12">
-        <v>0.4960020000000001</v>
+        <v>4.16428</v>
       </c>
       <c r="I12">
-        <v>0.03098588117774611</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J12">
-        <v>0.03098588117774611</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.96800500000001</v>
+        <v>7.396246333333333</v>
       </c>
       <c r="N12">
-        <v>110.904015</v>
+        <v>22.188739</v>
       </c>
       <c r="O12">
-        <v>0.8233806072555885</v>
+        <v>0.1569177223230415</v>
       </c>
       <c r="P12">
-        <v>0.8233806072555884</v>
+        <v>0.1569177223230415</v>
       </c>
       <c r="Q12">
-        <v>6.112068138670002</v>
+        <v>10.26668022699111</v>
       </c>
       <c r="R12">
-        <v>55.00861324803002</v>
+        <v>92.40012204291999</v>
       </c>
       <c r="S12">
-        <v>0.0255131736604821</v>
+        <v>0.02845412670237325</v>
       </c>
       <c r="T12">
-        <v>0.02551317366048209</v>
+        <v>0.02845412670237325</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.388093333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.16428</v>
+      </c>
+      <c r="I13">
+        <v>0.1813315046964271</v>
+      </c>
+      <c r="J13">
+        <v>0.1813315046964271</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.02965966666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.088979</v>
+      </c>
+      <c r="O13">
+        <v>0.0006292553179602461</v>
+      </c>
+      <c r="P13">
+        <v>0.0006292553179602461</v>
+      </c>
+      <c r="Q13">
+        <v>0.04117038556888888</v>
+      </c>
+      <c r="R13">
+        <v>0.37053347012</v>
+      </c>
+      <c r="S13">
+        <v>0.0001141038136439601</v>
+      </c>
+      <c r="T13">
+        <v>0.0001141038136439601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.162456</v>
+      </c>
+      <c r="H14">
+        <v>0.487368</v>
+      </c>
+      <c r="I14">
+        <v>0.02122219754216535</v>
+      </c>
+      <c r="J14">
+        <v>0.02122219754216534</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.740639666666667</v>
+      </c>
+      <c r="N14">
+        <v>8.221919</v>
+      </c>
+      <c r="O14">
+        <v>0.05814502584416985</v>
+      </c>
+      <c r="P14">
+        <v>0.05814502584416984</v>
+      </c>
+      <c r="Q14">
+        <v>0.445233357688</v>
+      </c>
+      <c r="R14">
+        <v>4.007100219192</v>
+      </c>
+      <c r="S14">
+        <v>0.001233965224559282</v>
+      </c>
+      <c r="T14">
+        <v>0.001233965224559282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.162456</v>
+      </c>
+      <c r="H15">
+        <v>0.487368</v>
+      </c>
+      <c r="I15">
+        <v>0.02122219754216535</v>
+      </c>
+      <c r="J15">
+        <v>0.02122219754216534</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>36.96800500000001</v>
+      </c>
+      <c r="N15">
+        <v>110.904015</v>
+      </c>
+      <c r="O15">
+        <v>0.7843079965148284</v>
+      </c>
+      <c r="P15">
+        <v>0.7843079965148283</v>
+      </c>
+      <c r="Q15">
+        <v>6.005674220280001</v>
+      </c>
+      <c r="R15">
+        <v>54.05106798252001</v>
+      </c>
+      <c r="S15">
+        <v>0.01664473923593762</v>
+      </c>
+      <c r="T15">
+        <v>0.01664473923593761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.162456</v>
+      </c>
+      <c r="H16">
+        <v>0.487368</v>
+      </c>
+      <c r="I16">
+        <v>0.02122219754216535</v>
+      </c>
+      <c r="J16">
+        <v>0.02122219754216534</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.396246333333333</v>
+      </c>
+      <c r="N16">
+        <v>22.188739</v>
+      </c>
+      <c r="O16">
+        <v>0.1569177223230415</v>
+      </c>
+      <c r="P16">
+        <v>0.1569177223230415</v>
+      </c>
+      <c r="Q16">
+        <v>1.201564594328</v>
+      </c>
+      <c r="R16">
+        <v>10.814081348952</v>
+      </c>
+      <c r="S16">
+        <v>0.003330138901006236</v>
+      </c>
+      <c r="T16">
+        <v>0.003330138901006235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.162456</v>
+      </c>
+      <c r="H17">
+        <v>0.487368</v>
+      </c>
+      <c r="I17">
+        <v>0.02122219754216535</v>
+      </c>
+      <c r="J17">
+        <v>0.02122219754216534</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.165334</v>
-      </c>
-      <c r="H13">
-        <v>0.4960020000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.03098588117774611</v>
-      </c>
-      <c r="J13">
-        <v>0.03098588117774611</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.098334333333334</v>
-      </c>
-      <c r="N13">
-        <v>18.295003</v>
-      </c>
-      <c r="O13">
-        <v>0.1358269191596248</v>
-      </c>
-      <c r="P13">
-        <v>0.1358269191596247</v>
-      </c>
-      <c r="Q13">
-        <v>1.008262008667334</v>
-      </c>
-      <c r="R13">
-        <v>9.074358078006002</v>
-      </c>
-      <c r="S13">
-        <v>0.004208716777819459</v>
-      </c>
-      <c r="T13">
-        <v>0.004208716777819459</v>
+      <c r="M17">
+        <v>0.02965966666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.088979</v>
+      </c>
+      <c r="O17">
+        <v>0.0006292553179602461</v>
+      </c>
+      <c r="P17">
+        <v>0.0006292553179602461</v>
+      </c>
+      <c r="Q17">
+        <v>0.004818390808000001</v>
+      </c>
+      <c r="R17">
+        <v>0.04336551727200001</v>
+      </c>
+      <c r="S17">
+        <v>1.335418066221041E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.335418066221041E-05</v>
       </c>
     </row>
   </sheetData>
